--- a/Salle/Discurso/Intermedias/conteos_terminos_discursos.xlsx
+++ b/Salle/Discurso/Intermedias/conteos_terminos_discursos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Anio</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sistema judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
   </si>
   <si>
     <t xml:space="preserve">2019</t>
@@ -407,13 +416,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E2" t="n">
-        <v>0.815130068110387</v>
+        <v>0.484933127721687</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.407565034055194</v>
+        <v>0.320055864296314</v>
       </c>
     </row>
     <row r="4">
@@ -441,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00783778911644603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -458,217 +467,455 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>573</v>
+        <v>349</v>
       </c>
       <c r="D5" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E5" t="n">
-        <v>4.49105316372358</v>
+        <v>3.38483323149738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>72570</v>
+        <v>103107</v>
       </c>
       <c r="E6" t="n">
-        <v>0.86812732534105</v>
+        <v>0.00969866255443374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D7" t="n">
-        <v>72570</v>
+        <v>103107</v>
       </c>
       <c r="E7" t="n">
-        <v>2.20476781038997</v>
+        <v>1.26082613207639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0137797988149373</v>
+        <v>0.472095455849818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>430</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E9" t="n">
-        <v>5.92531349042304</v>
+        <v>0.286959982967536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>35813</v>
+        <v>108029</v>
       </c>
       <c r="E10" t="n">
-        <v>1.67536927931198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="D11" t="n">
-        <v>35813</v>
+        <v>108029</v>
       </c>
       <c r="E11" t="n">
-        <v>2.26174852707118</v>
+        <v>4.56358940654824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>35813</v>
+        <v>108029</v>
       </c>
       <c r="E12" t="n">
-        <v>0.223382570574931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" t="n">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="D13" t="n">
-        <v>35813</v>
+        <v>108029</v>
       </c>
       <c r="E13" t="n">
-        <v>4.85857091000475</v>
+        <v>1.98094955984041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>608268</v>
+        <v>31409</v>
       </c>
       <c r="E14" t="n">
-        <v>3.27158423589602</v>
+        <v>1.20984431213983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="D15" t="n">
-        <v>608268</v>
+        <v>31409</v>
       </c>
       <c r="E15" t="n">
-        <v>0.655960859358046</v>
+        <v>2.32417459963705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>608268</v>
+        <v>31409</v>
       </c>
       <c r="E16" t="n">
-        <v>0.332090460126129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>1734</v>
+        <v>155</v>
       </c>
       <c r="D17" t="n">
-        <v>608268</v>
+        <v>31409</v>
       </c>
       <c r="E17" t="n">
-        <v>2.85071711811241</v>
+        <v>4.93489127320195</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.159190041071031</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>87</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.76990671463593</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.40548137737175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>76</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.14166425530156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.330701500558059</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>93</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.84440494398743</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.413376875697574</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.950766814104419</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>770</v>
+      </c>
+      <c r="D26" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.66358567060093</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>204</v>
+      </c>
+      <c r="D27" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.705677242600767</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.231766545363977</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>683</v>
+      </c>
+      <c r="D29" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.36263508184472</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0968576607491248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>200</v>
+      </c>
+      <c r="D31" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.69184043392232</v>
       </c>
     </row>
   </sheetData>
